--- a/data/phenology_check.xlsx
+++ b/data/phenology_check.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joe/Library/CloudStorage/GoogleDrive-jendris@my.apsu.edu/.shortcut-targets-by-id/1p5eHgH8eX9-QjkyyA3uRz5Lk7ontMZtO/Rehm lab - General/Trees/Phenology and Bud Forcing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joe/Documents/College/02- R code/freezing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77148927-CDF7-EC4A-B6FC-EFED557F6112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A879A38C-6D61-CD4C-A236-DE06225F377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35340" yWindow="340" windowWidth="28240" windowHeight="20280" xr2:uid="{277460CD-1A45-514C-AE9D-36F42A3AE893}"/>
   </bookViews>
@@ -910,7 +910,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J393" sqref="J393"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -945,13 +945,13 @@
         <v>44260</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>8043</v>
+        <v>8232</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>44260</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>8063</v>
+        <v>8233</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -979,13 +979,13 @@
         <v>44260</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>8059</v>
+        <v>8067</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -996,13 +996,13 @@
         <v>44260</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>8231</v>
+        <v>8234</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1013,13 +1013,13 @@
         <v>44260</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>8002</v>
+        <v>8235</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>44260</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1047,13 +1047,13 @@
         <v>44260</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1064,13 +1064,13 @@
         <v>44260</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1081,13 +1081,13 @@
         <v>44260</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>44260</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1115,13 +1115,13 @@
         <v>44260</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>8232</v>
+        <v>8115</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         <v>44260</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>8233</v>
+        <v>8119</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>44260</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>8067</v>
+        <v>8118</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1166,13 +1166,13 @@
         <v>44260</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
       </c>
       <c r="D15" s="2">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>44260</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
       </c>
       <c r="D16" s="2">
-        <v>8235</v>
+        <v>8112</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>44267</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="2">
-        <v>8043</v>
+        <v>8232</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>44267</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
       </c>
       <c r="D28" s="2">
-        <v>8063</v>
+        <v>8233</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -1404,13 +1404,13 @@
         <v>44267</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
       <c r="D29" s="2">
-        <v>8059</v>
+        <v>8067</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>44267</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>8231</v>
+        <v>8234</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>44267</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>8002</v>
+        <v>8235</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>44267</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         <v>44267</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
       </c>
       <c r="D33" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -1489,13 +1489,13 @@
         <v>44267</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>44267</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
         <v>4</v>
       </c>
       <c r="D35" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>44267</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2">
         <v>5</v>
       </c>
       <c r="D36" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>44267</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="2">
-        <v>8232</v>
+        <v>8115</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -1557,13 +1557,13 @@
         <v>44267</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
       </c>
       <c r="D38" s="2">
-        <v>8233</v>
+        <v>8119</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -1574,13 +1574,13 @@
         <v>44267</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="2">
         <v>3</v>
       </c>
       <c r="D39" s="2">
-        <v>8067</v>
+        <v>8118</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -1591,13 +1591,13 @@
         <v>44267</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" s="2">
         <v>4</v>
       </c>
       <c r="D40" s="2">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -1608,13 +1608,13 @@
         <v>44267</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="2">
         <v>5</v>
       </c>
       <c r="D41" s="2">
-        <v>8235</v>
+        <v>8112</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -1880,13 +1880,13 @@
         <v>44274</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -1897,13 +1897,13 @@
         <v>44274</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
@@ -1914,13 +1914,13 @@
         <v>44274</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" s="2">
         <v>3</v>
       </c>
       <c r="D59" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -1931,13 +1931,13 @@
         <v>44274</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="2">
         <v>4</v>
       </c>
       <c r="D60" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -1948,13 +1948,13 @@
         <v>44274</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" s="2">
         <v>5</v>
       </c>
       <c r="D61" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -1965,13 +1965,13 @@
         <v>44274</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
       </c>
       <c r="D62" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -1982,13 +1982,13 @@
         <v>44274</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" s="2">
         <v>2</v>
       </c>
       <c r="D63" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -1999,13 +1999,13 @@
         <v>44274</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" s="2">
         <v>3</v>
       </c>
       <c r="D64" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
@@ -2016,13 +2016,13 @@
         <v>44274</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" s="2">
         <v>4</v>
       </c>
       <c r="D65" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -2033,13 +2033,13 @@
         <v>44274</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" s="2">
         <v>5</v>
       </c>
       <c r="D66" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -2305,16 +2305,16 @@
         <v>44281</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
       </c>
       <c r="D82" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E82" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2322,16 +2322,16 @@
         <v>44281</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" s="2">
         <v>2</v>
       </c>
       <c r="D83" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E83" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2339,16 +2339,16 @@
         <v>44281</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" s="2">
         <v>3</v>
       </c>
       <c r="D84" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E84" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2356,16 +2356,16 @@
         <v>44281</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" s="2">
         <v>4</v>
       </c>
       <c r="D85" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2373,16 +2373,16 @@
         <v>44281</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" s="2">
         <v>5</v>
       </c>
       <c r="D86" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2390,16 +2390,16 @@
         <v>44281</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" s="2">
         <v>1</v>
       </c>
       <c r="D87" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E87" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2407,16 +2407,16 @@
         <v>44281</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" s="2">
         <v>2</v>
       </c>
       <c r="D88" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E88" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2424,16 +2424,16 @@
         <v>44281</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" s="2">
         <v>3</v>
       </c>
       <c r="D89" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E89" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2441,16 +2441,16 @@
         <v>44281</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" s="2">
         <v>4</v>
       </c>
       <c r="D90" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E90" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2458,16 +2458,16 @@
         <v>44281</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" s="2">
         <v>5</v>
       </c>
       <c r="D91" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E91" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2730,16 +2730,16 @@
         <v>44288</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" s="2">
         <v>1</v>
       </c>
       <c r="D107" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E107" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2747,16 +2747,16 @@
         <v>44288</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" s="2">
         <v>2</v>
       </c>
       <c r="D108" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E108" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2764,16 +2764,16 @@
         <v>44288</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" s="2">
         <v>3</v>
       </c>
       <c r="D109" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E109" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2781,16 +2781,16 @@
         <v>44288</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" s="2">
         <v>4</v>
       </c>
       <c r="D110" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E110" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2798,16 +2798,16 @@
         <v>44288</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" s="2">
         <v>5</v>
       </c>
       <c r="D111" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E111" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2815,16 +2815,16 @@
         <v>44288</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" s="2">
         <v>1</v>
       </c>
       <c r="D112" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E112" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2832,16 +2832,16 @@
         <v>44288</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" s="2">
         <v>2</v>
       </c>
       <c r="D113" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E113" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2849,16 +2849,16 @@
         <v>44288</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" s="2">
         <v>3</v>
       </c>
       <c r="D114" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E114" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2866,16 +2866,16 @@
         <v>44288</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" s="2">
         <v>4</v>
       </c>
       <c r="D115" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E115" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2883,16 +2883,16 @@
         <v>44288</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" s="2">
         <v>5</v>
       </c>
       <c r="D116" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E116" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3155,13 +3155,13 @@
         <v>44295</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" s="2">
         <v>1</v>
       </c>
       <c r="D132" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E132" s="2">
         <v>4</v>
@@ -3172,16 +3172,16 @@
         <v>44295</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" s="2">
         <v>2</v>
       </c>
       <c r="D133" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E133" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3189,16 +3189,16 @@
         <v>44295</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" s="2">
         <v>3</v>
       </c>
       <c r="D134" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E134" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3206,16 +3206,16 @@
         <v>44295</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" s="2">
         <v>4</v>
       </c>
       <c r="D135" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E135" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3223,13 +3223,13 @@
         <v>44295</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" s="2">
         <v>5</v>
       </c>
       <c r="D136" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E136" s="2">
         <v>3</v>
@@ -3240,13 +3240,13 @@
         <v>44295</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" s="2">
         <v>1</v>
       </c>
       <c r="D137" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E137" s="2">
         <v>4</v>
@@ -3257,16 +3257,16 @@
         <v>44295</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" s="2">
         <v>2</v>
       </c>
       <c r="D138" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E138" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3274,16 +3274,16 @@
         <v>44295</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" s="2">
         <v>3</v>
       </c>
       <c r="D139" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E139" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -3291,16 +3291,16 @@
         <v>44295</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" s="2">
         <v>4</v>
       </c>
       <c r="D140" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E140" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3308,13 +3308,13 @@
         <v>44295</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" s="2">
         <v>5</v>
       </c>
       <c r="D141" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E141" s="2">
         <v>3</v>
@@ -3580,13 +3580,13 @@
         <v>44302</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" s="2">
         <v>1</v>
       </c>
       <c r="D157" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E157" s="2">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         <v>44302</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" s="2">
         <v>2</v>
       </c>
       <c r="D158" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E158" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -3614,13 +3614,13 @@
         <v>44302</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" s="2">
         <v>3</v>
       </c>
       <c r="D159" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E159" s="2">
         <v>4</v>
@@ -3631,16 +3631,16 @@
         <v>44302</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" s="2">
         <v>4</v>
       </c>
       <c r="D160" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E160" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -3648,16 +3648,16 @@
         <v>44302</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" s="2">
         <v>5</v>
       </c>
       <c r="D161" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E161" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -3665,13 +3665,13 @@
         <v>44302</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" s="2">
         <v>1</v>
       </c>
       <c r="D162" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E162" s="2">
         <v>4</v>
@@ -3682,16 +3682,16 @@
         <v>44302</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" s="2">
         <v>2</v>
       </c>
       <c r="D163" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E163" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -3699,13 +3699,13 @@
         <v>44302</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" s="2">
         <v>3</v>
       </c>
       <c r="D164" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E164" s="2">
         <v>4</v>
@@ -3716,16 +3716,16 @@
         <v>44302</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" s="2">
         <v>4</v>
       </c>
       <c r="D165" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E165" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -3733,16 +3733,16 @@
         <v>44302</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" s="2">
         <v>5</v>
       </c>
       <c r="D166" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E166" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -4005,13 +4005,13 @@
         <v>44309</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" s="2">
         <v>1</v>
       </c>
       <c r="D182" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E182" s="2">
         <v>4</v>
@@ -4022,16 +4022,16 @@
         <v>44309</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" s="2">
         <v>2</v>
       </c>
       <c r="D183" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E183" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -4039,13 +4039,13 @@
         <v>44309</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" s="2">
         <v>3</v>
       </c>
       <c r="D184" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E184" s="2">
         <v>4</v>
@@ -4056,13 +4056,13 @@
         <v>44309</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" s="2">
         <v>4</v>
       </c>
       <c r="D185" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E185" s="2">
         <v>4</v>
@@ -4073,13 +4073,13 @@
         <v>44309</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" s="2">
         <v>5</v>
       </c>
       <c r="D186" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E186" s="2">
         <v>4</v>
@@ -4090,13 +4090,13 @@
         <v>44309</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" s="2">
         <v>1</v>
       </c>
       <c r="D187" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E187" s="2">
         <v>4</v>
@@ -4107,16 +4107,16 @@
         <v>44309</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" s="2">
         <v>2</v>
       </c>
       <c r="D188" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E188" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -4124,13 +4124,13 @@
         <v>44309</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" s="2">
         <v>3</v>
       </c>
       <c r="D189" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E189" s="2">
         <v>4</v>
@@ -4141,13 +4141,13 @@
         <v>44309</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" s="2">
         <v>4</v>
       </c>
       <c r="D190" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E190" s="2">
         <v>4</v>
@@ -4158,13 +4158,13 @@
         <v>44309</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" s="2">
         <v>5</v>
       </c>
       <c r="D191" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E191" s="2">
         <v>4</v>
@@ -4430,13 +4430,13 @@
         <v>44316</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" s="2">
         <v>1</v>
       </c>
       <c r="D207" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E207" s="2">
         <v>4</v>
@@ -4447,13 +4447,13 @@
         <v>44316</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" s="2">
         <v>2</v>
       </c>
       <c r="D208" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E208" s="2">
         <v>4</v>
@@ -4464,13 +4464,13 @@
         <v>44316</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" s="2">
         <v>3</v>
       </c>
       <c r="D209" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E209" s="2">
         <v>4</v>
@@ -4481,13 +4481,13 @@
         <v>44316</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" s="2">
         <v>4</v>
       </c>
       <c r="D210" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E210" s="2">
         <v>4</v>
@@ -4498,13 +4498,13 @@
         <v>44316</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211" s="2">
         <v>5</v>
       </c>
       <c r="D211" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E211" s="2">
         <v>4</v>
@@ -4515,13 +4515,13 @@
         <v>44316</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" s="2">
         <v>1</v>
       </c>
       <c r="D212" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E212" s="2">
         <v>4</v>
@@ -4532,13 +4532,13 @@
         <v>44316</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" s="2">
         <v>2</v>
       </c>
       <c r="D213" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E213" s="2">
         <v>4</v>
@@ -4549,13 +4549,13 @@
         <v>44316</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" s="2">
         <v>3</v>
       </c>
       <c r="D214" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E214" s="2">
         <v>4</v>
@@ -4566,13 +4566,13 @@
         <v>44316</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" s="2">
         <v>4</v>
       </c>
       <c r="D215" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E215" s="2">
         <v>4</v>
@@ -4583,13 +4583,13 @@
         <v>44316</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" s="2">
         <v>5</v>
       </c>
       <c r="D216" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E216" s="2">
         <v>4</v>
@@ -4855,13 +4855,13 @@
         <v>44607</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" s="2">
         <v>1</v>
       </c>
       <c r="D232" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E232" s="2">
         <v>0</v>
@@ -4872,13 +4872,13 @@
         <v>44607</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" s="2">
         <v>2</v>
       </c>
       <c r="D233" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E233" s="2">
         <v>0</v>
@@ -4889,13 +4889,13 @@
         <v>44607</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" s="2">
         <v>3</v>
       </c>
       <c r="D234" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E234" s="2">
         <v>0</v>
@@ -4906,13 +4906,13 @@
         <v>44607</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" s="2">
         <v>4</v>
       </c>
       <c r="D235" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E235" s="2">
         <v>0</v>
@@ -4923,13 +4923,13 @@
         <v>44607</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" s="2">
         <v>5</v>
       </c>
       <c r="D236" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E236" s="2">
         <v>0</v>
@@ -4940,13 +4940,13 @@
         <v>44607</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" s="2">
         <v>1</v>
       </c>
       <c r="D237" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E237" s="2">
         <v>0</v>
@@ -4957,13 +4957,13 @@
         <v>44607</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" s="2">
         <v>2</v>
       </c>
       <c r="D238" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E238" s="2">
         <v>0</v>
@@ -4974,13 +4974,13 @@
         <v>44607</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" s="2">
         <v>3</v>
       </c>
       <c r="D239" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E239" s="2">
         <v>0</v>
@@ -4991,13 +4991,13 @@
         <v>44607</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" s="2">
         <v>4</v>
       </c>
       <c r="D240" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E240" s="2">
         <v>0</v>
@@ -5008,13 +5008,13 @@
         <v>44607</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" s="2">
         <v>5</v>
       </c>
       <c r="D241" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E241" s="2">
         <v>0</v>
@@ -5280,13 +5280,13 @@
         <v>44621</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" s="2">
         <v>1</v>
       </c>
       <c r="D257" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E257" s="2">
         <v>0</v>
@@ -5297,13 +5297,13 @@
         <v>44621</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C258" s="2">
         <v>2</v>
       </c>
       <c r="D258" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E258" s="2">
         <v>0</v>
@@ -5314,13 +5314,13 @@
         <v>44621</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C259" s="2">
         <v>3</v>
       </c>
       <c r="D259" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E259" s="2">
         <v>0</v>
@@ -5331,13 +5331,13 @@
         <v>44621</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C260" s="2">
         <v>4</v>
       </c>
       <c r="D260" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E260" s="2">
         <v>0</v>
@@ -5348,13 +5348,13 @@
         <v>44621</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C261" s="2">
         <v>5</v>
       </c>
       <c r="D261" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E261" s="2">
         <v>0</v>
@@ -5365,13 +5365,13 @@
         <v>44621</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C262" s="2">
         <v>1</v>
       </c>
       <c r="D262" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E262" s="2">
         <v>0</v>
@@ -5382,13 +5382,13 @@
         <v>44621</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C263" s="2">
         <v>2</v>
       </c>
       <c r="D263" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E263" s="2">
         <v>0</v>
@@ -5399,13 +5399,13 @@
         <v>44621</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C264" s="2">
         <v>3</v>
       </c>
       <c r="D264" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E264" s="2">
         <v>0</v>
@@ -5416,13 +5416,13 @@
         <v>44621</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C265" s="2">
         <v>4</v>
       </c>
       <c r="D265" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E265" s="2">
         <v>0</v>
@@ -5433,13 +5433,13 @@
         <v>44621</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C266" s="2">
         <v>5</v>
       </c>
       <c r="D266" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E266" s="2">
         <v>0</v>
@@ -5705,13 +5705,13 @@
         <v>44635</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C282" s="2">
         <v>1</v>
       </c>
       <c r="D282" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E282" s="2">
         <v>0</v>
@@ -5722,13 +5722,13 @@
         <v>44635</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C283" s="2">
         <v>2</v>
       </c>
       <c r="D283" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E283" s="2">
         <v>0</v>
@@ -5739,13 +5739,13 @@
         <v>44635</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C284" s="2">
         <v>3</v>
       </c>
       <c r="D284" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E284" s="2">
         <v>0</v>
@@ -5756,16 +5756,16 @@
         <v>44635</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C285" s="2">
         <v>4</v>
       </c>
       <c r="D285" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E285" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -5773,13 +5773,13 @@
         <v>44635</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C286" s="2">
         <v>5</v>
       </c>
       <c r="D286" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E286" s="2">
         <v>0</v>
@@ -5790,13 +5790,13 @@
         <v>44635</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C287" s="2">
         <v>1</v>
       </c>
       <c r="D287" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E287" s="2">
         <v>0</v>
@@ -5807,13 +5807,13 @@
         <v>44635</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C288" s="2">
         <v>2</v>
       </c>
       <c r="D288" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E288" s="2">
         <v>0</v>
@@ -5824,13 +5824,13 @@
         <v>44635</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C289" s="2">
         <v>3</v>
       </c>
       <c r="D289" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E289" s="2">
         <v>0</v>
@@ -5841,16 +5841,16 @@
         <v>44635</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C290" s="2">
         <v>4</v>
       </c>
       <c r="D290" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E290" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -5858,13 +5858,13 @@
         <v>44635</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C291" s="2">
         <v>5</v>
       </c>
       <c r="D291" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E291" s="2">
         <v>0</v>
@@ -6130,16 +6130,16 @@
         <v>44658</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C307" s="2">
         <v>1</v>
       </c>
       <c r="D307" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E307" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -6147,16 +6147,16 @@
         <v>44658</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C308" s="2">
         <v>2</v>
       </c>
       <c r="D308" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E308" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -6164,16 +6164,16 @@
         <v>44658</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C309" s="2">
         <v>3</v>
       </c>
       <c r="D309" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E309" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -6181,16 +6181,16 @@
         <v>44658</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C310" s="2">
         <v>4</v>
       </c>
       <c r="D310" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E310" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -6198,16 +6198,16 @@
         <v>44658</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C311" s="2">
         <v>5</v>
       </c>
       <c r="D311" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E311" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -6215,16 +6215,16 @@
         <v>44658</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C312" s="2">
         <v>1</v>
       </c>
       <c r="D312" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E312" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -6232,16 +6232,16 @@
         <v>44658</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C313" s="2">
         <v>2</v>
       </c>
       <c r="D313" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E313" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -6249,16 +6249,16 @@
         <v>44658</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C314" s="2">
         <v>3</v>
       </c>
       <c r="D314" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E314" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -6266,16 +6266,16 @@
         <v>44658</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C315" s="2">
         <v>4</v>
       </c>
       <c r="D315" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E315" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -6283,16 +6283,16 @@
         <v>44658</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C316" s="2">
         <v>5</v>
       </c>
       <c r="D316" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E316" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -6555,13 +6555,13 @@
         <v>44670</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C332" s="2">
         <v>1</v>
       </c>
       <c r="D332" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E332" s="2">
         <v>4</v>
@@ -6572,16 +6572,16 @@
         <v>44670</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C333" s="2">
         <v>2</v>
       </c>
       <c r="D333" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E333" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -6589,16 +6589,16 @@
         <v>44670</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C334" s="2">
         <v>3</v>
       </c>
       <c r="D334" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E334" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -6606,16 +6606,16 @@
         <v>44670</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C335" s="2">
         <v>4</v>
       </c>
       <c r="D335" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E335" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -6623,16 +6623,16 @@
         <v>44670</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C336" s="2">
         <v>5</v>
       </c>
       <c r="D336" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E336" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -6640,13 +6640,13 @@
         <v>44670</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C337" s="2">
         <v>1</v>
       </c>
       <c r="D337" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E337" s="2">
         <v>4</v>
@@ -6657,16 +6657,16 @@
         <v>44670</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C338" s="2">
         <v>2</v>
       </c>
       <c r="D338" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E338" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -6674,16 +6674,16 @@
         <v>44670</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C339" s="2">
         <v>3</v>
       </c>
       <c r="D339" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E339" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -6691,16 +6691,16 @@
         <v>44670</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C340" s="2">
         <v>4</v>
       </c>
       <c r="D340" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E340" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -6708,16 +6708,16 @@
         <v>44670</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C341" s="2">
         <v>5</v>
       </c>
       <c r="D341" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E341" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -6980,13 +6980,13 @@
         <v>44684</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C357" s="2">
         <v>1</v>
       </c>
       <c r="D357" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E357" s="2">
         <v>4</v>
@@ -6997,13 +6997,13 @@
         <v>44684</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C358" s="2">
         <v>2</v>
       </c>
       <c r="D358" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E358" s="2">
         <v>4</v>
@@ -7014,13 +7014,13 @@
         <v>44684</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C359" s="2">
         <v>3</v>
       </c>
       <c r="D359" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E359" s="2">
         <v>4</v>
@@ -7031,13 +7031,13 @@
         <v>44684</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C360" s="2">
         <v>4</v>
       </c>
       <c r="D360" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E360" s="2">
         <v>4</v>
@@ -7048,13 +7048,13 @@
         <v>44684</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C361" s="2">
         <v>5</v>
       </c>
       <c r="D361" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E361" s="2">
         <v>4</v>
@@ -7065,13 +7065,13 @@
         <v>44684</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C362" s="2">
         <v>1</v>
       </c>
       <c r="D362" s="2">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="E362" s="2">
         <v>4</v>
@@ -7082,13 +7082,13 @@
         <v>44684</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C363" s="2">
         <v>2</v>
       </c>
       <c r="D363" s="2">
-        <v>8063</v>
+        <v>8119</v>
       </c>
       <c r="E363" s="2">
         <v>4</v>
@@ -7099,13 +7099,13 @@
         <v>44684</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C364" s="2">
         <v>3</v>
       </c>
       <c r="D364" s="2">
-        <v>8059</v>
+        <v>8118</v>
       </c>
       <c r="E364" s="2">
         <v>4</v>
@@ -7116,13 +7116,13 @@
         <v>44684</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C365" s="2">
         <v>4</v>
       </c>
       <c r="D365" s="2">
-        <v>8231</v>
+        <v>8230</v>
       </c>
       <c r="E365" s="2">
         <v>4</v>
@@ -7133,13 +7133,13 @@
         <v>44684</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C366" s="2">
         <v>5</v>
       </c>
       <c r="D366" s="2">
-        <v>8002</v>
+        <v>8112</v>
       </c>
       <c r="E366" s="2">
         <v>4</v>
@@ -7320,13 +7320,13 @@
         <v>44967</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C377" s="2">
         <v>1</v>
       </c>
       <c r="D377" s="2">
-        <v>8043</v>
+        <v>8232</v>
       </c>
       <c r="E377" s="2">
         <v>0</v>
@@ -7334,16 +7334,16 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="23">
-        <v>44974</v>
+        <v>44967</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C378" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D378" s="2">
-        <v>8043</v>
+        <v>8233</v>
       </c>
       <c r="E378" s="2">
         <v>0</v>
@@ -7351,16 +7351,16 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="23">
-        <v>44981</v>
+        <v>44967</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C379" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D379" s="2">
-        <v>8043</v>
+        <v>8067</v>
       </c>
       <c r="E379" s="2">
         <v>0</v>
@@ -7368,36 +7368,36 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="23">
-        <v>44987</v>
+        <v>44967</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C380" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D380" s="2">
-        <v>8043</v>
+        <v>8234</v>
       </c>
       <c r="E380" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="23">
-        <v>44995</v>
+        <v>44967</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C381" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D381" s="2">
-        <v>8043</v>
+        <v>8235</v>
       </c>
       <c r="E381" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
@@ -7405,13 +7405,13 @@
         <v>44967</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C382" s="2">
         <v>1</v>
       </c>
       <c r="D382" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E382" s="2">
         <v>0</v>
@@ -7422,13 +7422,13 @@
         <v>44967</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C383" s="2">
         <v>2</v>
       </c>
       <c r="D383" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E383" s="2">
         <v>0</v>
@@ -7439,13 +7439,13 @@
         <v>44967</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C384" s="2">
         <v>3</v>
       </c>
       <c r="D384" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E384" s="2">
         <v>0</v>
@@ -7456,13 +7456,13 @@
         <v>44967</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C385" s="2">
         <v>4</v>
       </c>
       <c r="D385" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E385" s="2">
         <v>0</v>
@@ -7473,13 +7473,13 @@
         <v>44967</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C386" s="2">
         <v>5</v>
       </c>
       <c r="D386" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E386" s="2">
         <v>0</v>
@@ -7490,13 +7490,13 @@
         <v>44967</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C387" s="2">
         <v>1</v>
       </c>
       <c r="D387" s="2">
-        <v>8232</v>
+        <v>8115</v>
       </c>
       <c r="E387" s="2">
         <v>0</v>
@@ -7507,13 +7507,13 @@
         <v>44967</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C388" s="2">
         <v>2</v>
       </c>
       <c r="D388" s="2">
-        <v>8233</v>
+        <v>8119</v>
       </c>
       <c r="E388" s="2">
         <v>0</v>
@@ -7524,13 +7524,13 @@
         <v>44967</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C389" s="2">
         <v>3</v>
       </c>
       <c r="D389" s="2">
-        <v>8067</v>
+        <v>8118</v>
       </c>
       <c r="E389" s="2">
         <v>0</v>
@@ -7541,13 +7541,13 @@
         <v>44967</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C390" s="2">
         <v>4</v>
       </c>
       <c r="D390" s="2">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="E390" s="2">
         <v>0</v>
@@ -7558,13 +7558,13 @@
         <v>44967</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C391" s="2">
         <v>5</v>
       </c>
       <c r="D391" s="2">
-        <v>8235</v>
+        <v>8112</v>
       </c>
       <c r="E391" s="2">
         <v>0</v>
@@ -7742,87 +7742,87 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="23">
-        <v>45002</v>
+        <v>44974</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C402" s="2">
         <v>1</v>
       </c>
       <c r="D402" s="2">
-        <v>8043</v>
+        <v>8232</v>
       </c>
       <c r="E402" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="23">
-        <v>45009</v>
+        <v>44974</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C403" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D403" s="2">
-        <v>8043</v>
+        <v>8233</v>
       </c>
       <c r="E403" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="23">
-        <v>45021</v>
+        <v>44974</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C404" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D404" s="2">
-        <v>8043</v>
+        <v>8067</v>
       </c>
       <c r="E404" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="23">
-        <v>45027</v>
+        <v>44974</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C405" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D405" s="2">
-        <v>8043</v>
+        <v>8234</v>
       </c>
       <c r="E405" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="23">
-        <v>45036</v>
+        <v>44974</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C406" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D406" s="2">
-        <v>8043</v>
+        <v>8235</v>
       </c>
       <c r="E406" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -7830,13 +7830,13 @@
         <v>44974</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C407" s="2">
         <v>1</v>
       </c>
       <c r="D407" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E407" s="2">
         <v>0</v>
@@ -7847,13 +7847,13 @@
         <v>44974</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C408" s="2">
         <v>2</v>
       </c>
       <c r="D408" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E408" s="2">
         <v>0</v>
@@ -7864,13 +7864,13 @@
         <v>44974</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C409" s="2">
         <v>3</v>
       </c>
       <c r="D409" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E409" s="2">
         <v>0</v>
@@ -7881,13 +7881,13 @@
         <v>44974</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C410" s="2">
         <v>4</v>
       </c>
       <c r="D410" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E410" s="2">
         <v>0</v>
@@ -7898,13 +7898,13 @@
         <v>44974</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C411" s="2">
         <v>5</v>
       </c>
       <c r="D411" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E411" s="2">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         <v>44974</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C412" s="2">
         <v>1</v>
       </c>
       <c r="D412" s="2">
-        <v>8232</v>
+        <v>8115</v>
       </c>
       <c r="E412" s="2">
         <v>0</v>
@@ -7932,13 +7932,13 @@
         <v>44974</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C413" s="2">
         <v>2</v>
       </c>
       <c r="D413" s="2">
-        <v>8233</v>
+        <v>8119</v>
       </c>
       <c r="E413" s="2">
         <v>0</v>
@@ -7949,13 +7949,13 @@
         <v>44974</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C414" s="2">
         <v>3</v>
       </c>
       <c r="D414" s="2">
-        <v>8067</v>
+        <v>8118</v>
       </c>
       <c r="E414" s="2">
         <v>0</v>
@@ -7966,13 +7966,13 @@
         <v>44974</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C415" s="2">
         <v>4</v>
       </c>
       <c r="D415" s="2">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="E415" s="2">
         <v>0</v>
@@ -7983,13 +7983,13 @@
         <v>44974</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C416" s="2">
         <v>5</v>
       </c>
       <c r="D416" s="2">
-        <v>8235</v>
+        <v>8112</v>
       </c>
       <c r="E416" s="2">
         <v>0</v>
@@ -8167,16 +8167,16 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="23">
-        <v>44967</v>
+        <v>44981</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C427" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D427" s="2">
-        <v>8063</v>
+        <v>8232</v>
       </c>
       <c r="E427" s="2">
         <v>0</v>
@@ -8184,16 +8184,16 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="23">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C428" s="2">
         <v>2</v>
       </c>
       <c r="D428" s="2">
-        <v>8063</v>
+        <v>8233</v>
       </c>
       <c r="E428" s="2">
         <v>0</v>
@@ -8204,13 +8204,13 @@
         <v>44981</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C429" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D429" s="2">
-        <v>8063</v>
+        <v>8067</v>
       </c>
       <c r="E429" s="2">
         <v>0</v>
@@ -8218,16 +8218,16 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="23">
-        <v>44987</v>
+        <v>44981</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C430" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D430" s="2">
-        <v>8063</v>
+        <v>8234</v>
       </c>
       <c r="E430" s="2">
         <v>0</v>
@@ -8235,16 +8235,16 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="23">
-        <v>44995</v>
+        <v>44981</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C431" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D431" s="2">
-        <v>8063</v>
+        <v>8235</v>
       </c>
       <c r="E431" s="2">
         <v>0</v>
@@ -8255,13 +8255,13 @@
         <v>44981</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C432" s="2">
         <v>1</v>
       </c>
       <c r="D432" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E432" s="2">
         <v>0</v>
@@ -8272,13 +8272,13 @@
         <v>44981</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C433" s="2">
         <v>2</v>
       </c>
       <c r="D433" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E433" s="2">
         <v>0</v>
@@ -8289,13 +8289,13 @@
         <v>44981</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C434" s="2">
         <v>3</v>
       </c>
       <c r="D434" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E434" s="2">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>44981</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C435" s="2">
         <v>4</v>
       </c>
       <c r="D435" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E435" s="2">
         <v>0</v>
@@ -8323,13 +8323,13 @@
         <v>44981</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C436" s="2">
         <v>5</v>
       </c>
       <c r="D436" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E436" s="2">
         <v>0</v>
@@ -8340,13 +8340,13 @@
         <v>44981</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C437" s="2">
         <v>1</v>
       </c>
       <c r="D437" s="2">
-        <v>8232</v>
+        <v>8115</v>
       </c>
       <c r="E437" s="2">
         <v>0</v>
@@ -8357,13 +8357,13 @@
         <v>44981</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C438" s="2">
         <v>2</v>
       </c>
       <c r="D438" s="2">
-        <v>8233</v>
+        <v>8119</v>
       </c>
       <c r="E438" s="2">
         <v>0</v>
@@ -8374,13 +8374,13 @@
         <v>44981</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C439" s="2">
         <v>3</v>
       </c>
       <c r="D439" s="2">
-        <v>8067</v>
+        <v>8118</v>
       </c>
       <c r="E439" s="2">
         <v>0</v>
@@ -8391,13 +8391,13 @@
         <v>44981</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C440" s="2">
         <v>4</v>
       </c>
       <c r="D440" s="2">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="E440" s="2">
         <v>0</v>
@@ -8408,13 +8408,13 @@
         <v>44981</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C441" s="2">
         <v>5</v>
       </c>
       <c r="D441" s="2">
-        <v>8235</v>
+        <v>8112</v>
       </c>
       <c r="E441" s="2">
         <v>0</v>
@@ -8592,16 +8592,16 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="23">
-        <v>45002</v>
+        <v>44987</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C452" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D452" s="2">
-        <v>8063</v>
+        <v>8232</v>
       </c>
       <c r="E452" s="2">
         <v>0</v>
@@ -8609,70 +8609,70 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="23">
-        <v>45009</v>
+        <v>44987</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C453" s="2">
         <v>2</v>
       </c>
       <c r="D453" s="2">
-        <v>8063</v>
+        <v>8233</v>
       </c>
       <c r="E453" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="23">
-        <v>45021</v>
+        <v>44987</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C454" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D454" s="2">
-        <v>8063</v>
+        <v>8067</v>
       </c>
       <c r="E454" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" s="23">
-        <v>45027</v>
+        <v>44987</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C455" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D455" s="2">
-        <v>8063</v>
+        <v>8234</v>
       </c>
       <c r="E455" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="23">
-        <v>45036</v>
+        <v>44987</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C456" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D456" s="2">
-        <v>8063</v>
+        <v>8235</v>
       </c>
       <c r="E456" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -8680,16 +8680,16 @@
         <v>44987</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C457" s="2">
         <v>1</v>
       </c>
       <c r="D457" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E457" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
@@ -8697,16 +8697,16 @@
         <v>44987</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C458" s="2">
         <v>2</v>
       </c>
       <c r="D458" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E458" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -8714,13 +8714,13 @@
         <v>44987</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C459" s="2">
         <v>3</v>
       </c>
       <c r="D459" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E459" s="2">
         <v>0</v>
@@ -8731,13 +8731,13 @@
         <v>44987</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C460" s="2">
         <v>4</v>
       </c>
       <c r="D460" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E460" s="2">
         <v>0</v>
@@ -8748,13 +8748,13 @@
         <v>44987</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C461" s="2">
         <v>5</v>
       </c>
       <c r="D461" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E461" s="2">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>44987</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C462" s="2">
         <v>1</v>
       </c>
       <c r="D462" s="2">
-        <v>8232</v>
+        <v>8115</v>
       </c>
       <c r="E462" s="2">
         <v>0</v>
@@ -8782,16 +8782,16 @@
         <v>44987</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C463" s="2">
         <v>2</v>
       </c>
       <c r="D463" s="2">
-        <v>8233</v>
+        <v>8119</v>
       </c>
       <c r="E463" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -8799,13 +8799,13 @@
         <v>44987</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C464" s="2">
         <v>3</v>
       </c>
       <c r="D464" s="2">
-        <v>8067</v>
+        <v>8118</v>
       </c>
       <c r="E464" s="2">
         <v>0</v>
@@ -8816,13 +8816,13 @@
         <v>44987</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C465" s="2">
         <v>4</v>
       </c>
       <c r="D465" s="2">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="E465" s="2">
         <v>0</v>
@@ -8833,13 +8833,13 @@
         <v>44987</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C466" s="2">
         <v>5</v>
       </c>
       <c r="D466" s="2">
-        <v>8235</v>
+        <v>8112</v>
       </c>
       <c r="E466" s="2">
         <v>0</v>
@@ -9017,16 +9017,16 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" s="23">
-        <v>44967</v>
+        <v>44995</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C477" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D477" s="2">
-        <v>8059</v>
+        <v>8232</v>
       </c>
       <c r="E477" s="2">
         <v>0</v>
@@ -9034,16 +9034,16 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="23">
-        <v>44974</v>
+        <v>44995</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C478" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D478" s="2">
-        <v>8059</v>
+        <v>8233</v>
       </c>
       <c r="E478" s="2">
         <v>0</v>
@@ -9051,16 +9051,16 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" s="23">
-        <v>44981</v>
+        <v>44995</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C479" s="2">
         <v>3</v>
       </c>
       <c r="D479" s="2">
-        <v>8059</v>
+        <v>8067</v>
       </c>
       <c r="E479" s="2">
         <v>0</v>
@@ -9068,16 +9068,16 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" s="23">
-        <v>44987</v>
+        <v>44995</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C480" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D480" s="2">
-        <v>8059</v>
+        <v>8234</v>
       </c>
       <c r="E480" s="2">
         <v>0</v>
@@ -9088,13 +9088,13 @@
         <v>44995</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C481" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D481" s="2">
-        <v>8059</v>
+        <v>8235</v>
       </c>
       <c r="E481" s="2">
         <v>0</v>
@@ -9105,16 +9105,16 @@
         <v>44995</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C482" s="2">
         <v>1</v>
       </c>
       <c r="D482" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E482" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
@@ -9122,16 +9122,16 @@
         <v>44995</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C483" s="2">
         <v>2</v>
       </c>
       <c r="D483" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E483" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
@@ -9139,16 +9139,16 @@
         <v>44995</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C484" s="2">
         <v>3</v>
       </c>
       <c r="D484" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E484" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
@@ -9156,13 +9156,13 @@
         <v>44995</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C485" s="2">
         <v>4</v>
       </c>
       <c r="D485" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E485" s="2">
         <v>0</v>
@@ -9173,13 +9173,13 @@
         <v>44995</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C486" s="2">
         <v>5</v>
       </c>
       <c r="D486" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E486" s="2">
         <v>0</v>
@@ -9190,13 +9190,13 @@
         <v>44995</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C487" s="2">
         <v>1</v>
       </c>
       <c r="D487" s="2">
-        <v>8232</v>
+        <v>8115</v>
       </c>
       <c r="E487" s="2">
         <v>0</v>
@@ -9207,16 +9207,16 @@
         <v>44995</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C488" s="2">
         <v>2</v>
       </c>
       <c r="D488" s="2">
-        <v>8233</v>
+        <v>8119</v>
       </c>
       <c r="E488" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
@@ -9224,16 +9224,16 @@
         <v>44995</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C489" s="2">
         <v>3</v>
       </c>
       <c r="D489" s="2">
-        <v>8067</v>
+        <v>8118</v>
       </c>
       <c r="E489" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
@@ -9241,13 +9241,13 @@
         <v>44995</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C490" s="2">
         <v>4</v>
       </c>
       <c r="D490" s="2">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="E490" s="2">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>44995</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C491" s="2">
         <v>5</v>
       </c>
       <c r="D491" s="2">
-        <v>8235</v>
+        <v>8112</v>
       </c>
       <c r="E491" s="2">
         <v>0</v>
@@ -9445,84 +9445,84 @@
         <v>45002</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C502" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D502" s="2">
-        <v>8059</v>
+        <v>8232</v>
       </c>
       <c r="E502" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="23">
-        <v>45009</v>
+        <v>45002</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C503" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D503" s="2">
-        <v>8059</v>
+        <v>8233</v>
       </c>
       <c r="E503" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" s="23">
-        <v>45021</v>
+        <v>45002</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C504" s="2">
         <v>3</v>
       </c>
       <c r="D504" s="2">
-        <v>8059</v>
+        <v>8067</v>
       </c>
       <c r="E504" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" s="23">
-        <v>45027</v>
+        <v>45002</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C505" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D505" s="2">
-        <v>8059</v>
+        <v>8234</v>
       </c>
       <c r="E505" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" s="23">
-        <v>45036</v>
+        <v>45002</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C506" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D506" s="2">
-        <v>8059</v>
+        <v>8235</v>
       </c>
       <c r="E506" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
@@ -9530,16 +9530,16 @@
         <v>45002</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C507" s="2">
         <v>1</v>
       </c>
       <c r="D507" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E507" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
@@ -9547,16 +9547,16 @@
         <v>45002</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C508" s="2">
         <v>2</v>
       </c>
       <c r="D508" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E508" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
@@ -9564,16 +9564,16 @@
         <v>45002</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C509" s="2">
         <v>3</v>
       </c>
       <c r="D509" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E509" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
@@ -9581,16 +9581,16 @@
         <v>45002</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C510" s="2">
         <v>4</v>
       </c>
       <c r="D510" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E510" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
@@ -9598,16 +9598,16 @@
         <v>45002</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C511" s="2">
         <v>5</v>
       </c>
       <c r="D511" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E511" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
@@ -9615,13 +9615,13 @@
         <v>45002</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C512" s="2">
         <v>1</v>
       </c>
       <c r="D512" s="2">
-        <v>8232</v>
+        <v>8115</v>
       </c>
       <c r="E512" s="2">
         <v>0</v>
@@ -9632,16 +9632,16 @@
         <v>45002</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C513" s="2">
         <v>2</v>
       </c>
       <c r="D513" s="2">
-        <v>8233</v>
+        <v>8119</v>
       </c>
       <c r="E513" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
@@ -9649,16 +9649,16 @@
         <v>45002</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C514" s="2">
         <v>3</v>
       </c>
       <c r="D514" s="2">
-        <v>8067</v>
+        <v>8118</v>
       </c>
       <c r="E514" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
@@ -9666,16 +9666,16 @@
         <v>45002</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C515" s="2">
         <v>4</v>
       </c>
       <c r="D515" s="2">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="E515" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
@@ -9683,13 +9683,13 @@
         <v>45002</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C516" s="2">
         <v>5</v>
       </c>
       <c r="D516" s="2">
-        <v>8235</v>
+        <v>8112</v>
       </c>
       <c r="E516" s="2">
         <v>0</v>
@@ -9867,87 +9867,87 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" s="23">
-        <v>44967</v>
+        <v>45009</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C527" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D527" s="2">
-        <v>8231</v>
+        <v>8232</v>
       </c>
       <c r="E527" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" s="23">
-        <v>44974</v>
+        <v>45009</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C528" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D528" s="2">
-        <v>8231</v>
+        <v>8233</v>
       </c>
       <c r="E528" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" s="23">
-        <v>44981</v>
+        <v>45009</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C529" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D529" s="2">
-        <v>8231</v>
+        <v>8067</v>
       </c>
       <c r="E529" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" s="23">
-        <v>44987</v>
+        <v>45009</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C530" s="2">
         <v>4</v>
       </c>
       <c r="D530" s="2">
-        <v>8231</v>
+        <v>8234</v>
       </c>
       <c r="E530" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" s="23">
-        <v>44995</v>
+        <v>45009</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C531" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D531" s="2">
-        <v>8231</v>
+        <v>8235</v>
       </c>
       <c r="E531" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
@@ -9955,13 +9955,13 @@
         <v>45009</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C532" s="2">
         <v>1</v>
       </c>
       <c r="D532" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E532" s="2">
         <v>1</v>
@@ -9972,16 +9972,16 @@
         <v>45009</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C533" s="2">
         <v>2</v>
       </c>
       <c r="D533" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E533" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
@@ -9989,16 +9989,16 @@
         <v>45009</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C534" s="2">
         <v>3</v>
       </c>
       <c r="D534" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E534" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
@@ -10006,16 +10006,16 @@
         <v>45009</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C535" s="2">
         <v>4</v>
       </c>
       <c r="D535" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E535" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
@@ -10023,16 +10023,16 @@
         <v>45009</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C536" s="2">
         <v>5</v>
       </c>
       <c r="D536" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E536" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
@@ -10040,13 +10040,13 @@
         <v>45009</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C537" s="2">
         <v>1</v>
       </c>
       <c r="D537" s="2">
-        <v>8232</v>
+        <v>8115</v>
       </c>
       <c r="E537" s="2">
         <v>1</v>
@@ -10057,13 +10057,13 @@
         <v>45009</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C538" s="2">
         <v>2</v>
       </c>
       <c r="D538" s="2">
-        <v>8233</v>
+        <v>8119</v>
       </c>
       <c r="E538" s="2">
         <v>2</v>
@@ -10074,16 +10074,16 @@
         <v>45009</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C539" s="2">
         <v>3</v>
       </c>
       <c r="D539" s="2">
-        <v>8067</v>
+        <v>8118</v>
       </c>
       <c r="E539" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
@@ -10091,13 +10091,13 @@
         <v>45009</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C540" s="2">
         <v>4</v>
       </c>
       <c r="D540" s="2">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="E540" s="2">
         <v>2</v>
@@ -10108,13 +10108,13 @@
         <v>45009</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C541" s="2">
         <v>5</v>
       </c>
       <c r="D541" s="2">
-        <v>8235</v>
+        <v>8112</v>
       </c>
       <c r="E541" s="2">
         <v>2</v>
@@ -10292,36 +10292,36 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" s="23">
-        <v>45002</v>
+        <v>45021</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C552" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D552" s="2">
-        <v>8231</v>
+        <v>8232</v>
       </c>
       <c r="E552" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" s="23">
-        <v>45009</v>
+        <v>45021</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C553" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D553" s="2">
-        <v>8231</v>
+        <v>8233</v>
       </c>
       <c r="E553" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
@@ -10329,50 +10329,50 @@
         <v>45021</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C554" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D554" s="2">
-        <v>8231</v>
+        <v>8067</v>
       </c>
       <c r="E554" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" s="23">
-        <v>45027</v>
+        <v>45021</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C555" s="2">
         <v>4</v>
       </c>
       <c r="D555" s="2">
-        <v>8231</v>
+        <v>8234</v>
       </c>
       <c r="E555" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" s="23">
-        <v>45036</v>
+        <v>45021</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C556" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D556" s="2">
-        <v>8231</v>
+        <v>8235</v>
       </c>
       <c r="E556" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
@@ -10380,16 +10380,16 @@
         <v>45021</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C557" s="2">
         <v>1</v>
       </c>
       <c r="D557" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E557" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
@@ -10397,13 +10397,13 @@
         <v>45021</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C558" s="2">
         <v>2</v>
       </c>
       <c r="D558" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E558" s="2">
         <v>3</v>
@@ -10414,16 +10414,16 @@
         <v>45021</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C559" s="2">
         <v>3</v>
       </c>
       <c r="D559" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E559" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
@@ -10431,16 +10431,16 @@
         <v>45021</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C560" s="2">
         <v>4</v>
       </c>
       <c r="D560" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E560" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
@@ -10448,16 +10448,16 @@
         <v>45021</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C561" s="2">
         <v>5</v>
       </c>
       <c r="D561" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E561" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
@@ -10465,16 +10465,16 @@
         <v>45021</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C562" s="2">
         <v>1</v>
       </c>
       <c r="D562" s="2">
-        <v>8232</v>
+        <v>8115</v>
       </c>
       <c r="E562" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
@@ -10482,13 +10482,13 @@
         <v>45021</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C563" s="2">
         <v>2</v>
       </c>
       <c r="D563" s="2">
-        <v>8233</v>
+        <v>8119</v>
       </c>
       <c r="E563" s="2">
         <v>3</v>
@@ -10499,13 +10499,13 @@
         <v>45021</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C564" s="2">
         <v>3</v>
       </c>
       <c r="D564" s="2">
-        <v>8067</v>
+        <v>8118</v>
       </c>
       <c r="E564" s="2">
         <v>3</v>
@@ -10516,16 +10516,16 @@
         <v>45021</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C565" s="2">
         <v>4</v>
       </c>
       <c r="D565" s="2">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="E565" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
@@ -10533,16 +10533,16 @@
         <v>45021</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C566" s="2">
         <v>5</v>
       </c>
       <c r="D566" s="2">
-        <v>8235</v>
+        <v>8112</v>
       </c>
       <c r="E566" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
@@ -10717,87 +10717,87 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" s="23">
-        <v>44967</v>
+        <v>45027</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C577" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D577" s="2">
-        <v>8002</v>
+        <v>8232</v>
       </c>
       <c r="E577" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" s="23">
-        <v>44974</v>
+        <v>45027</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C578" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D578" s="2">
-        <v>8002</v>
+        <v>8233</v>
       </c>
       <c r="E578" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" s="23">
-        <v>44981</v>
+        <v>45027</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C579" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D579" s="2">
-        <v>8002</v>
+        <v>8067</v>
       </c>
       <c r="E579" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" s="23">
-        <v>44987</v>
+        <v>45027</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C580" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D580" s="2">
-        <v>8002</v>
+        <v>8234</v>
       </c>
       <c r="E580" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" s="23">
-        <v>44995</v>
+        <v>45027</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C581" s="2">
         <v>5</v>
       </c>
       <c r="D581" s="2">
-        <v>8002</v>
+        <v>8235</v>
       </c>
       <c r="E581" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
@@ -10805,16 +10805,16 @@
         <v>45027</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C582" s="2">
         <v>1</v>
       </c>
       <c r="D582" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E582" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
@@ -10822,13 +10822,13 @@
         <v>45027</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C583" s="2">
         <v>2</v>
       </c>
       <c r="D583" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E583" s="2">
         <v>4</v>
@@ -10839,16 +10839,16 @@
         <v>45027</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C584" s="2">
         <v>3</v>
       </c>
       <c r="D584" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E584" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
@@ -10856,16 +10856,16 @@
         <v>45027</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C585" s="2">
         <v>4</v>
       </c>
       <c r="D585" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E585" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
@@ -10873,13 +10873,13 @@
         <v>45027</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C586" s="2">
         <v>5</v>
       </c>
       <c r="D586" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E586" s="2">
         <v>4</v>
@@ -10890,13 +10890,13 @@
         <v>45027</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C587" s="2">
         <v>1</v>
       </c>
       <c r="D587" s="2">
-        <v>8232</v>
+        <v>8115</v>
       </c>
       <c r="E587" s="2">
         <v>3</v>
@@ -10907,16 +10907,16 @@
         <v>45027</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C588" s="2">
         <v>2</v>
       </c>
       <c r="D588" s="2">
-        <v>8233</v>
+        <v>8119</v>
       </c>
       <c r="E588" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.2">
@@ -10924,13 +10924,13 @@
         <v>45027</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C589" s="2">
         <v>3</v>
       </c>
       <c r="D589" s="2">
-        <v>8067</v>
+        <v>8118</v>
       </c>
       <c r="E589" s="2">
         <v>4</v>
@@ -10941,16 +10941,16 @@
         <v>45027</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C590" s="2">
         <v>4</v>
       </c>
       <c r="D590" s="2">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="E590" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.2">
@@ -10958,13 +10958,13 @@
         <v>45027</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C591" s="2">
         <v>5</v>
       </c>
       <c r="D591" s="2">
-        <v>8235</v>
+        <v>8112</v>
       </c>
       <c r="E591" s="2">
         <v>4</v>
@@ -10987,7 +10987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" s="23">
         <v>45027</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" s="23">
         <v>45027</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" s="23">
         <v>45027</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" s="23">
         <v>45027</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" s="23">
         <v>45027</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" s="23">
         <v>45027</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" s="23">
         <v>45027</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" s="23">
         <v>45027</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" s="23">
         <v>45027</v>
       </c>
@@ -11140,265 +11140,265 @@
         <v>3</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" s="23">
-        <v>45002</v>
+        <v>45036</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C602" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D602" s="2">
-        <v>8002</v>
+        <v>8232</v>
       </c>
       <c r="E602" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" s="23">
-        <v>45009</v>
+        <v>45036</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C603" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D603" s="2">
-        <v>8002</v>
+        <v>8233</v>
       </c>
       <c r="E603" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" s="23">
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C604" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D604" s="2">
-        <v>8002</v>
+        <v>8067</v>
       </c>
       <c r="E604" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" s="23">
-        <v>45027</v>
+        <v>45036</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C605" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D605" s="2">
-        <v>8002</v>
+        <v>8234</v>
       </c>
       <c r="E605" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606" s="23">
         <v>45036</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C606" s="2">
         <v>5</v>
       </c>
       <c r="D606" s="2">
-        <v>8002</v>
+        <v>8235</v>
       </c>
       <c r="E606" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" s="23">
         <v>45036</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C607" s="2">
         <v>1</v>
       </c>
       <c r="D607" s="2">
-        <v>8115</v>
+        <v>8043</v>
       </c>
       <c r="E607" s="2">
         <v>4</v>
       </c>
-      <c r="F607" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" s="23">
         <v>45036</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C608" s="2">
         <v>2</v>
       </c>
       <c r="D608" s="2">
-        <v>8119</v>
+        <v>8063</v>
       </c>
       <c r="E608" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" s="23">
         <v>45036</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C609" s="2">
         <v>3</v>
       </c>
       <c r="D609" s="2">
-        <v>8118</v>
+        <v>8059</v>
       </c>
       <c r="E609" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" s="23">
         <v>45036</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C610" s="2">
         <v>4</v>
       </c>
       <c r="D610" s="2">
-        <v>8230</v>
+        <v>8231</v>
       </c>
       <c r="E610" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611" s="23">
         <v>45036</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C611" s="2">
         <v>5</v>
       </c>
       <c r="D611" s="2">
-        <v>8112</v>
+        <v>8002</v>
       </c>
       <c r="E611" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612" s="23">
         <v>45036</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C612" s="2">
         <v>1</v>
       </c>
       <c r="D612" s="2">
-        <v>8232</v>
+        <v>8115</v>
       </c>
       <c r="E612" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F612" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613" s="23">
         <v>45036</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C613" s="2">
         <v>2</v>
       </c>
       <c r="D613" s="2">
-        <v>8233</v>
+        <v>8119</v>
       </c>
       <c r="E613" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" s="23">
         <v>45036</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C614" s="2">
         <v>3</v>
       </c>
       <c r="D614" s="2">
-        <v>8067</v>
+        <v>8118</v>
       </c>
       <c r="E614" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" s="23">
         <v>45036</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C615" s="2">
         <v>4</v>
       </c>
       <c r="D615" s="2">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="E615" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" s="23">
         <v>45036</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C616" s="2">
         <v>5</v>
       </c>
       <c r="D616" s="2">
-        <v>8235</v>
+        <v>8112</v>
       </c>
       <c r="E616" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617" s="23">
         <v>45036</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" s="23">
         <v>45036</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" s="23">
         <v>45036</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620" s="23">
         <v>45036</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621" s="23">
         <v>45036</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" s="23">
         <v>45036</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" s="23">
         <v>45036</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" s="23">
         <v>45036</v>
       </c>
@@ -11569,7 +11569,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A377:F606">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F626">
+    <sortCondition ref="A2:A626"/>
+    <sortCondition ref="B2:B626"/>
     <sortCondition ref="C2:C626"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12929,21 +12931,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F3A2D606D2A7F41B72D5682D1CD7008" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c9a984df10aea868d290f027d6c837ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2884d-86bd-41bc-b5ea-f3a63e495149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe35e6e01e7e6a40de5a6762ec7aea22" ns2:_="">
     <xsd:import namespace="48b2884d-86bd-41bc-b5ea-f3a63e495149"/>
@@ -13127,24 +13114,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C33FF89-0843-4667-8529-652596918B30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C949C17-46B3-4763-95A9-7272F4063E88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7033810-1E00-4E83-BEEE-371324477308}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13160,4 +13145,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C949C17-46B3-4763-95A9-7272F4063E88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C33FF89-0843-4667-8529-652596918B30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/phenology_check.xlsx
+++ b/data/phenology_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joe/Documents/College/02- R code/freezing/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joe/Documents/College/02- R code/1- freezing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A879A38C-6D61-CD4C-A236-DE06225F377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE93F4A-A70D-AF4E-BA2A-BD072B5420AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35340" yWindow="340" windowWidth="28240" windowHeight="20280" xr2:uid="{277460CD-1A45-514C-AE9D-36F42A3AE893}"/>
+    <workbookView xWindow="-32400" yWindow="1300" windowWidth="28240" windowHeight="20280" activeTab="3" xr2:uid="{277460CD-1A45-514C-AE9D-36F42A3AE893}"/>
   </bookViews>
   <sheets>
     <sheet name="Phenology" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD3236F-88EB-0B4A-8520-1E5866F13D2A}">
   <dimension ref="A1:F626"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
@@ -12368,10 +12368,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12386,7 +12386,7 @@
     <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -12429,8 +12429,14 @@
         <v>61</v>
       </c>
       <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="2">
+        <v>-87.339419262109104</v>
+      </c>
+      <c r="I2" s="2">
+        <v>36.5711503438867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -12450,8 +12456,14 @@
         <v>62</v>
       </c>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="2">
+        <v>-87.339877570500505</v>
+      </c>
+      <c r="I3" s="2">
+        <v>36.5711670682415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -12471,8 +12483,14 @@
         <v>28</v>
       </c>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="2">
+        <v>-87.339866157167407</v>
+      </c>
+      <c r="I4" s="2">
+        <v>36.571113010570699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -12491,8 +12509,14 @@
       <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="2">
+        <v>-87.343900807892894</v>
+      </c>
+      <c r="I5" s="2">
+        <v>36.571101440265203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -12512,8 +12536,14 @@
         <v>63</v>
       </c>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="2">
+        <v>-87.339318832914998</v>
+      </c>
+      <c r="I6" s="2">
+        <v>36.571186689912402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -12533,8 +12563,14 @@
         <v>64</v>
       </c>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="2">
+        <v>-87.339451252448697</v>
+      </c>
+      <c r="I7" s="2">
+        <v>36.570798666433703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -12554,8 +12590,14 @@
         <v>65</v>
       </c>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="2">
+        <v>-87.339551760006202</v>
+      </c>
+      <c r="I8" s="2">
+        <v>36.570780350143103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -12575,8 +12617,14 @@
         <v>66</v>
       </c>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="2">
+        <v>-87.339540623195106</v>
+      </c>
+      <c r="I9" s="2">
+        <v>36.570789396897403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -12595,8 +12643,14 @@
       <c r="G10" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="2">
+        <v>-87.339696972598105</v>
+      </c>
+      <c r="I10" s="2">
+        <v>36.570761906394402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -12616,8 +12670,14 @@
         <v>67</v>
       </c>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="2">
+        <v>-87.339395410513106</v>
+      </c>
+      <c r="I11" s="2">
+        <v>36.570807840455998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -12636,8 +12696,14 @@
       <c r="G12" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="2">
+        <v>-87.339463415062596</v>
+      </c>
+      <c r="I12" s="2">
+        <v>36.571024007682801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -12656,8 +12722,14 @@
       <c r="G13" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="2">
+        <v>-87.339463533423896</v>
+      </c>
+      <c r="I13" s="2">
+        <v>36.571051052450898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -12677,8 +12749,14 @@
         <v>68</v>
       </c>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="2">
+        <v>-87.339743573013706</v>
+      </c>
+      <c r="I14" s="2">
+        <v>36.571194495285198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -12697,8 +12775,14 @@
       <c r="G15" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="2">
+        <v>-87.339531617305497</v>
+      </c>
+      <c r="I15" s="2">
+        <v>36.571285249472403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -12717,8 +12801,14 @@
       <c r="G16" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="2">
+        <v>-87.339453580146696</v>
+      </c>
+      <c r="I16" s="2">
+        <v>36.571330546870698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -12738,8 +12828,14 @@
         <v>69</v>
       </c>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="2">
+        <v>-87.339419774944702</v>
+      </c>
+      <c r="I17" s="2">
+        <v>36.571267537878903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -12759,8 +12855,14 @@
         <v>70</v>
       </c>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="2">
+        <v>-87.339386285358501</v>
+      </c>
+      <c r="I18" s="2">
+        <v>36.571276648256202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -12780,8 +12882,14 @@
         <v>71</v>
       </c>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="2">
+        <v>-87.339484978556797</v>
+      </c>
+      <c r="I19" s="2">
+        <v>36.570843645576602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -12801,8 +12909,14 @@
         <v>72</v>
       </c>
       <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="2">
+        <v>-87.339619172889996</v>
+      </c>
+      <c r="I20" s="2">
+        <v>36.570861293438902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -12822,8 +12936,14 @@
         <v>73</v>
       </c>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="2">
+        <v>-87.3397992177199</v>
+      </c>
+      <c r="I21" s="2">
+        <v>36.571140246488198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -12843,8 +12963,14 @@
         <v>4047370</v>
       </c>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="2">
+        <v>-87.339386364248796</v>
+      </c>
+      <c r="I22" s="2">
+        <v>36.571294678100998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -12863,8 +12989,14 @@
       <c r="G23" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="2">
+        <v>-87.339386482584302</v>
+      </c>
+      <c r="I23" s="2">
+        <v>36.571321722867999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -12883,8 +13015,14 @@
       <c r="G24" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="2">
+        <v>-87.339140918178401</v>
+      </c>
+      <c r="I24" s="2">
+        <v>36.571394541963798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -12903,8 +13041,14 @@
       <c r="G25" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="2">
+        <v>-87.338704134615796</v>
+      </c>
+      <c r="I25" s="2">
+        <v>36.571188437896403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -12922,6 +13066,12 @@
       </c>
       <c r="G26" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-87.338335236965094</v>
+      </c>
+      <c r="I26" s="2">
+        <v>36.571171455318499</v>
       </c>
     </row>
   </sheetData>
@@ -12931,6 +13081,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F3A2D606D2A7F41B72D5682D1CD7008" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c9a984df10aea868d290f027d6c837ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2884d-86bd-41bc-b5ea-f3a63e495149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe35e6e01e7e6a40de5a6762ec7aea22" ns2:_="">
     <xsd:import namespace="48b2884d-86bd-41bc-b5ea-f3a63e495149"/>
@@ -13114,22 +13279,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C33FF89-0843-4667-8529-652596918B30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C949C17-46B3-4763-95A9-7272F4063E88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7033810-1E00-4E83-BEEE-371324477308}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13145,21 +13312,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C949C17-46B3-4763-95A9-7272F4063E88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C33FF89-0843-4667-8529-652596918B30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/phenology_check.xlsx
+++ b/data/phenology_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joe/Documents/College/02- R code/1- freezing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE93F4A-A70D-AF4E-BA2A-BD072B5420AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0836054C-FDA7-BD45-9207-90CC68E814AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="1300" windowWidth="28240" windowHeight="20280" activeTab="3" xr2:uid="{277460CD-1A45-514C-AE9D-36F42A3AE893}"/>
+    <workbookView xWindow="-32400" yWindow="1300" windowWidth="28240" windowHeight="20280" xr2:uid="{277460CD-1A45-514C-AE9D-36F42A3AE893}"/>
   </bookViews>
   <sheets>
     <sheet name="Phenology" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD3236F-88EB-0B4A-8520-1E5866F13D2A}">
   <dimension ref="A1:F626"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
@@ -12370,7 +12370,7 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -13081,21 +13081,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F3A2D606D2A7F41B72D5682D1CD7008" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c9a984df10aea868d290f027d6c837ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2884d-86bd-41bc-b5ea-f3a63e495149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe35e6e01e7e6a40de5a6762ec7aea22" ns2:_="">
     <xsd:import namespace="48b2884d-86bd-41bc-b5ea-f3a63e495149"/>
@@ -13279,24 +13264,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C33FF89-0843-4667-8529-652596918B30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C949C17-46B3-4763-95A9-7272F4063E88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7033810-1E00-4E83-BEEE-371324477308}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13312,4 +13295,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C949C17-46B3-4763-95A9-7272F4063E88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C33FF89-0843-4667-8529-652596918B30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>